--- a/Datasets/Visit Variables.xlsx
+++ b/Datasets/Visit Variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcory\Box\ADNI\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B11D988-7985-4BCA-B81C-420FEAAD6B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB358B0-B78F-4F91-A5AD-208787DCF6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9690" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="2532" windowWidth="17280" windowHeight="10776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
   <si>
     <t>Table</t>
   </si>
@@ -150,6 +150,117 @@
   </si>
   <si>
     <t>Total ADAS Score</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>ADNI_EMBICDCB</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>Durably learned probability</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>Transiently learned probabiility</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>Durably learned probability following previous transient learning (N2)</t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t>Durably learned probability given successful (R1) from transiently learned</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>Probability of retrieving from transiently learned state</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Probability of retrieving from durably learned state</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>Probability of retrieving from durably learned state after 5 minute delay</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Probability of immediate recall of a non-durably stored episodic memory</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Probability of immediate recall of a durably stored episodic memory</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>Probability of delayed recall of a durably stored episodic memory</t>
+  </si>
+  <si>
+    <t>UPENNPLASMA</t>
+  </si>
+  <si>
+    <t>AB40</t>
+  </si>
+  <si>
+    <t>Abeta1-40 result in plasma</t>
+  </si>
+  <si>
+    <t>pg/mL</t>
+  </si>
+  <si>
+    <t>AB42</t>
+  </si>
+  <si>
+    <t>Abeta1-42 result in plasma</t>
+  </si>
+  <si>
+    <t>UPENNBIOMK_MASTER</t>
+  </si>
+  <si>
+    <t>ABETA</t>
+  </si>
+  <si>
+    <t>Normalized Amyloid Beta (1-42) in CSF</t>
+  </si>
+  <si>
+    <t>TAU</t>
+  </si>
+  <si>
+    <t>Normalized TAU in CSF</t>
+  </si>
+  <si>
+    <t>PTAU</t>
+  </si>
+  <si>
+    <t>Normalized PTAU (181) in CSF</t>
   </si>
 </sst>
 </file>
@@ -467,21 +578,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,8 +605,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -509,7 +623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -523,7 +637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -537,7 +651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -551,7 +665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -565,7 +679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -579,7 +693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -593,7 +707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -607,7 +721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -621,7 +735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -635,7 +749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -649,7 +763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -663,7 +777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -677,7 +791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -691,7 +805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -703,6 +817,252 @@
       </c>
       <c r="D16" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Datasets/Visit Variables.xlsx
+++ b/Datasets/Visit Variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcory\Box\ADNI\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB358B0-B78F-4F91-A5AD-208787DCF6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559CD0B0-B417-48D0-8C6C-7B60410225AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="2532" windowWidth="17280" windowHeight="10776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="74">
   <si>
     <t>Table</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Current Diagnosis</t>
   </si>
   <si>
-    <t>Categorical</t>
-  </si>
-  <si>
     <t>Numeric</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t>Durably learned probability</t>
   </si>
   <si>
-    <t>Ratio</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -261,6 +255,9 @@
   </si>
   <si>
     <t>Normalized PTAU (181) in CSF</t>
+  </si>
+  <si>
+    <t>Ordinal</t>
   </si>
 </sst>
 </file>
@@ -580,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -606,7 +603,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -620,449 +617,449 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>40</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
         <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
         <v>62</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
         <v>63</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
         <v>68</v>
       </c>
-      <c r="B29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" t="s">
-        <v>70</v>
-      </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
